--- a/biology/Botanique/Anginon/Anginon.xlsx
+++ b/biology/Botanique/Anginon/Anginon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anginon est un genre de plantes à fleurs ligneuses de la famille des Apiaceae, comprenant douze espèces réparties en Namibie et en Afrique du Sud (Province du Cap).
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre est décrit en 1840 par le botaniste américain Constantin Rafinesque dans son ouvrage Good Book. Anginon rugosum est l'espèce type[1]. Une révision taxinomique du genre en 1977[2] a fixé le nombre d'espèces à douze, avec la description de cinq nouvelles espèces : A. ternatum, A. fruticosum, A. pumilum, A. tenuior et A. intermedium. Le genre est classé dans la sous-famille des Apioideae, tribu des Heteromorpheae[3].
-Les trois genres suivants sont fusionnés dans Anginon et sont donc synonymes[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre est décrit en 1840 par le botaniste américain Constantin Rafinesque dans son ouvrage Good Book. Anginon rugosum est l'espèce type. Une révision taxinomique du genre en 1977 a fixé le nombre d'espèces à douze, avec la description de cinq nouvelles espèces : A. ternatum, A. fruticosum, A. pumilum, A. tenuior et A. intermedium. Le genre est classé dans la sous-famille des Apioideae, tribu des Heteromorpheae.
+Les trois genres suivants sont fusionnés dans Anginon et sont donc synonymes :
 Lepiselinum C.Presl
 Lepisma E.Mey.
 Rhyticarpus Sond.</t>
@@ -545,9 +559,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (16 juin 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (16 juin 2022) :
 Anginon difforme (L.) B.L.Burtt
 Anginon fruticosum I.Allison &amp; B.-E.van Wyk
 Anginon intermedium I.Allison &amp; B.-E.van Wyk
